--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1431638.460199613</v>
+        <v>1421655.322457043</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12395515.18280278</v>
+        <v>12426458.88989895</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1508940.932681105</v>
+        <v>859256.4419733178</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10303181.69706013</v>
+        <v>10537266.81032782</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>130.9356567043873</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="G2" t="n">
-        <v>411.8707348436268</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>130.8133087092504</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>60.38072376136698</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>94.50081326185511</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>26.17372043046388</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>64.76801912617161</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>11.85265184632536</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -825,13 +825,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>141.5193365308191</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2350578157167</v>
+        <v>53.91567440413879</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>182.4031684223848</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>60.44282474375685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>88.14919951609785</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>105.2334694435003</v>
+        <v>56.6236909345665</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>260.9450981559193</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>295.790028596847</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>80.91813364792398</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>90.69811547110066</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1378,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>85.17289288835215</v>
+        <v>116.5631275042182</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.86209348694693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1587,16 +1587,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>105.9660567309793</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,16 +1615,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>126.7498226612781</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.1864878298223</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>269.1991505623644</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>92.43352988218109</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.606082249036</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>85.79758598644133</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>5.272976156706264</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>120.8365182023921</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>189.1309449837405</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7612876787265</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>165.6960058828134</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>86.43436349603083</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>74.10303855405861</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.0214693750427</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>203.3866471779456</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1938489850921</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>192.3673749365835</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T17" t="n">
-        <v>202.6706066824564</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9723760533456</v>
+        <v>200.6173698503539</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.8470081063176</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>88.12442255545113</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
-        <v>13.56801115521991</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>125.3116103321635</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
-        <v>190.1020452593626</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U18" t="n">
-        <v>225.777138064074</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>94.26035202726399</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S19" t="n">
-        <v>187.5415021656201</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2048663021205</v>
+        <v>9.694898626994931</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.6367768339986</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>291.6895322900782</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
-        <v>30.59144041089175</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>102.6944905648478</v>
+        <v>34.32106446352753</v>
       </c>
       <c r="T20" t="n">
-        <v>202.6706066824564</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9723760533456</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.8413556171277</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.8470081063176</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>88.12442255545113</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
-        <v>13.56801115521991</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>125.3116103321635</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
-        <v>190.1020452593626</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
-        <v>225.777138064074</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2048663021205</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>161.7958794811062</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>148.0396485553316</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2487,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>31.26260713376574</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>278.7019488598311</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>67.10592483573285</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892427807</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G34" t="n">
-        <v>130.3963959210117</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3963959210117</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>246.4755938422903</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>22.04658882052573</v>
       </c>
       <c r="Y43" t="n">
-        <v>151.8518831495024</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.92847288552876</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1335.127537179187</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="C2" t="n">
-        <v>1335.127537179187</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="D2" t="n">
-        <v>1335.127537179187</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="E2" t="n">
-        <v>949.3392845809428</v>
+        <v>553.8524235344767</v>
       </c>
       <c r="F2" t="n">
-        <v>538.3533797913353</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="G2" t="n">
-        <v>122.3223344947425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>122.3223344947425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>43.36919653809311</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>152.5078184301901</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>366.8168396232718</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>669.5878927711869</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>1038.14846457873</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>1417.286540135168</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O2" t="n">
-        <v>1761.960612545598</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.630958172449</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>2168.459826904656</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>2168.459826904656</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>2036.325171642786</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>2036.325171642786</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="U2" t="n">
-        <v>1782.718007305296</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="V2" t="n">
-        <v>1782.718007305296</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="W2" t="n">
-        <v>1721.727377243309</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="X2" t="n">
-        <v>1721.727377243309</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="Y2" t="n">
-        <v>1721.727377243309</v>
+        <v>686.1106626298174</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.2981106200058</v>
+        <v>648.5716248254445</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8450813388788</v>
+        <v>474.1185955443175</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9106716776275</v>
+        <v>325.1841858830662</v>
       </c>
       <c r="E3" t="n">
-        <v>448.673216672172</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="F3" t="n">
-        <v>302.138658699057</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="G3" t="n">
-        <v>165.2626649141729</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H3" t="n">
-        <v>69.80729798300612</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>43.36919653809311</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>89.55356510562336</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>427.1868157183626</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>684.7379512783505</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>1004.64484674686</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>1347.427370741492</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>1638.786616996058</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.295032556959</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
-        <v>2154.74554605989</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>2168.459826904656</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>2029.495166406374</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1834.78484488035</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1834.78484488035</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.362603338762</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.12524661056</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.273746405028</v>
+        <v>1024.547260610466</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.513447640074</v>
+        <v>816.7869618455125</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>505.3708436569409</v>
+        <v>818.7467779998875</v>
       </c>
       <c r="C4" t="n">
-        <v>336.434660729034</v>
+        <v>649.8105950719806</v>
       </c>
       <c r="D4" t="n">
-        <v>186.3180213166983</v>
+        <v>499.6939556596449</v>
       </c>
       <c r="E4" t="n">
-        <v>43.36919653809311</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="F4" t="n">
-        <v>43.36919653809311</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G4" t="n">
-        <v>43.36919653809311</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>43.36919653809311</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>43.36919653809311</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
-        <v>58.69630920174244</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>213.7203003246708</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>467.6240706728887</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>745.7191196640791</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>1022.636306385109</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>1262.397853152953</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
-        <v>1444.034594271087</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1486.355378693648</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1486.355378693648</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1486.355378693648</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>1486.355378693648</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>1197.229057667671</v>
+        <v>1000.395242830127</v>
       </c>
       <c r="V4" t="n">
-        <v>1197.229057667671</v>
+        <v>1000.395242830127</v>
       </c>
       <c r="W4" t="n">
-        <v>907.8118876307108</v>
+        <v>1000.395242830127</v>
       </c>
       <c r="X4" t="n">
-        <v>907.8118876307108</v>
+        <v>1000.395242830127</v>
       </c>
       <c r="Y4" t="n">
-        <v>687.0193084871806</v>
+        <v>1000.395242830127</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2003.121004338519</v>
+        <v>1597.614362171455</v>
       </c>
       <c r="C5" t="n">
-        <v>1634.158487398107</v>
+        <v>1228.651845231044</v>
       </c>
       <c r="D5" t="n">
-        <v>1634.158487398107</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>1984.214202235577</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>1984.214202235577</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>1984.214202235577</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926626</v>
+        <v>1984.214202235577</v>
       </c>
       <c r="X5" t="n">
-        <v>2064.174362665546</v>
+        <v>1984.214202235577</v>
       </c>
       <c r="Y5" t="n">
-        <v>2003.121004338519</v>
+        <v>1984.214202235577</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>761.5682439298478</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>587.1152146487208</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>438.1808049874695</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488047</v>
+        <v>278.943349982014</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>132.408792008899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>214.3836900926279</v>
       </c>
       <c r="K6" t="n">
-        <v>482.9033490193026</v>
+        <v>440.9010965631276</v>
       </c>
       <c r="L6" t="n">
-        <v>777.6069060507743</v>
+        <v>698.4522321231152</v>
       </c>
       <c r="M6" t="n">
-        <v>1140.868925009994</v>
+        <v>1018.359127591624</v>
       </c>
       <c r="N6" t="n">
-        <v>1528.15405360694</v>
+        <v>1361.141651586256</v>
       </c>
       <c r="O6" t="n">
-        <v>1860.224488783102</v>
+        <v>1652.500897840822</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>1867.009313401722</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2029.495166406371</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>1834.784844880347</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>1834.784844880347</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1599.632736648604</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1345.395379920403</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1137.54387971487</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>929.7835809499159</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.9512097489097</v>
+        <v>509.311966376246</v>
       </c>
       <c r="C7" t="n">
-        <v>305.0150268210028</v>
+        <v>340.3757834483391</v>
       </c>
       <c r="D7" t="n">
-        <v>305.0150268210028</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="E7" t="n">
-        <v>157.1019332386097</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386097</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="S7" t="n">
-        <v>1530.149686293184</v>
+        <v>1429.159731284994</v>
       </c>
       <c r="T7" t="n">
-        <v>1307.171205487919</v>
+        <v>1429.159731284994</v>
       </c>
       <c r="U7" t="n">
-        <v>1018.052867991757</v>
+        <v>1429.159731284994</v>
       </c>
       <c r="V7" t="n">
-        <v>763.3683797858703</v>
+        <v>1429.159731284994</v>
       </c>
       <c r="W7" t="n">
-        <v>473.9512097489097</v>
+        <v>1139.742561248033</v>
       </c>
       <c r="X7" t="n">
-        <v>473.9512097489097</v>
+        <v>911.7530103500159</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.9512097489097</v>
+        <v>690.9604312064857</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1576.854514966047</v>
+        <v>1158.463096854644</v>
       </c>
       <c r="C8" t="n">
-        <v>1207.891998025635</v>
+        <v>1158.463096854644</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974335</v>
+        <v>1158.463096854644</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>772.6748442563996</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>361.6889394667921</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>350.024593231485</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4825,31 +4825,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.59368700598</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W8" t="n">
-        <v>2353.59368700598</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="X8" t="n">
-        <v>2353.59368700598</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="Y8" t="n">
-        <v>1963.454355030168</v>
+        <v>1545.062936918766</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4871,19 +4871,19 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
         <v>298.3188265310613</v>
@@ -4892,22 +4892,22 @@
         <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.201367341571</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1861.38035112061</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4922,7 +4922,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.8936537153462</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>455.9574707874393</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1554.71063154124</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1358.081883701102</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1135.103402895837</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1135.103402895837</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="V10" t="n">
-        <v>1135.103402895837</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W10" t="n">
-        <v>845.6862328588763</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X10" t="n">
-        <v>845.6862328588763</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y10" t="n">
-        <v>624.8936537153462</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796265</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C11" t="n">
-        <v>552.8079389392149</v>
+        <v>1343.379050624725</v>
       </c>
       <c r="D11" t="n">
-        <v>194.5422403324644</v>
+        <v>985.1133520179749</v>
       </c>
       <c r="E11" t="n">
-        <v>194.5422403324644</v>
+        <v>599.3250994197306</v>
       </c>
       <c r="F11" t="n">
-        <v>194.5422403324644</v>
+        <v>599.3250994197306</v>
       </c>
       <c r="G11" t="n">
-        <v>194.5422403324644</v>
+        <v>184.252649264727</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.97538618064</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.50962791956</v>
+        <v>2489.08073960507</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943748</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>1134.908724368016</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>1134.908724368016</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X13" t="n">
-        <v>1134.908724368016</v>
+        <v>765.2869866004312</v>
       </c>
       <c r="Y13" t="n">
-        <v>1134.908724368016</v>
+        <v>544.4944074569011</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.7704558796265</v>
+        <v>2294.692414305509</v>
       </c>
       <c r="C14" t="n">
-        <v>552.8079389392149</v>
+        <v>1925.729897365098</v>
       </c>
       <c r="D14" t="n">
-        <v>194.5422403324644</v>
+        <v>1567.464198758347</v>
       </c>
       <c r="E14" t="n">
-        <v>66.51211643218343</v>
+        <v>1181.675946160103</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218343</v>
+        <v>770.6900413704955</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>356.3602556838063</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>84.44192178242803</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>84.44192178242803</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>335.0994200625328</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>761.5085519770223</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1327.408547649577</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1988.750767535187</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2665.408004329383</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>3291.020984046489</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3790.466187308251</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>4117.355988455315</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4222.096089121401</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>4128.728887220208</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>4128.728887220208</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794325</v>
+        <v>4128.728887220208</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>3797.665999876637</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.97538618064</v>
+        <v>3444.897344606523</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.50962791956</v>
+        <v>3071.431586345443</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943748</v>
+        <v>2681.292254369631</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5575801601279</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.104550879001</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1701412177497</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9326862122941</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3981282391791</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.4323885936882</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>89.76816032455557</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>84.44192178242803</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>84.44192178242803</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>95.39708182512641</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>546.6560891410935</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1092.61093433878</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1667.424224665253</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2171.046291223761</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2555.914333499374</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2555.914333499374</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2555.914333499374</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2433.857244406048</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.815885836613</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.774181110627</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.622072878884</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.384716150683</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.53321594515</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.772917180196</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>339.1190625691393</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>339.1190625691393</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>339.1190625691393</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>339.1190625691393</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>339.1190625691393</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>171.7493596572066</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>171.7493596572066</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>84.44192178242803</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>152.6484119477712</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>394.5694642088822</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>759.6715552029406</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1155.009642160147</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1546.382089455436</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>1891.861594484349</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2163.958312236472</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2268.908895574824</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>2194.057341479815</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>2008.177069383812</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1802.736011628312</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.651315683774</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>1258.966827477887</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>969.5496574409265</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>741.5601065429091</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>520.767527399379</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1380.787940856486</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C17" t="n">
-        <v>1011.825423916074</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D17" t="n">
-        <v>653.559725309324</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>267.7714727110798</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F17" t="n">
-        <v>267.7714727110798</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>73.46099297715706</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H17" t="n">
-        <v>73.46099297715706</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I17" t="n">
-        <v>73.46099297715706</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J17" t="n">
-        <v>286.2829520527389</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K17" t="n">
-        <v>655.9864185513915</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L17" t="n">
-        <v>1151.538022017664</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M17" t="n">
-        <v>1734.604100889754</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N17" t="n">
-        <v>2331.718606873645</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O17" t="n">
-        <v>2882.22164145287</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P17" t="n">
-        <v>3317.562244269448</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q17" t="n">
-        <v>3596.312160183769</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R17" t="n">
-        <v>3673.049648857853</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S17" t="n">
-        <v>3673.049648857853</v>
+        <v>4555.113898070874</v>
       </c>
       <c r="T17" t="n">
-        <v>3468.33186433012</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U17" t="n">
-        <v>3214.824413771184</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V17" t="n">
-        <v>2883.761526427614</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W17" t="n">
-        <v>2530.992871157499</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X17" t="n">
-        <v>2157.52711289642</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y17" t="n">
-        <v>1767.387780920608</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5491740061753</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0961447250484</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1617350637971</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9242800583415</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3897220852265</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G18" t="n">
-        <v>176.1806229879359</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>87.16605475010647</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I18" t="n">
-        <v>73.46099297715706</v>
+        <v>93.85065580060305</v>
       </c>
       <c r="J18" t="n">
-        <v>181.3984468692021</v>
+        <v>241.4986375524489</v>
       </c>
       <c r="K18" t="n">
-        <v>444.0355723203429</v>
+        <v>572.0073801158076</v>
       </c>
       <c r="L18" t="n">
-        <v>843.5061400789336</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M18" t="n">
-        <v>1329.026319016048</v>
+        <v>1654.758067211686</v>
       </c>
       <c r="N18" t="n">
-        <v>1841.805417294994</v>
+        <v>2276.854030611023</v>
       </c>
       <c r="O18" t="n">
-        <v>2288.678317493154</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
-        <v>2561.423142285563</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2561.423142285563</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2561.423142285563</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.845758111661</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.823490172911</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.765774956674</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.613666724932</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.37630999673</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.524809791197</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.764511026243</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>634.6162396105262</v>
+        <v>956.5125670724609</v>
       </c>
       <c r="C19" t="n">
-        <v>465.6800566826194</v>
+        <v>787.576384144554</v>
       </c>
       <c r="D19" t="n">
-        <v>315.5634172702836</v>
+        <v>637.4597447322183</v>
       </c>
       <c r="E19" t="n">
-        <v>220.3509404750674</v>
+        <v>489.5466511498252</v>
       </c>
       <c r="F19" t="n">
-        <v>73.46099297715706</v>
+        <v>342.6567036519148</v>
       </c>
       <c r="G19" t="n">
-        <v>73.46099297715706</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="H19" t="n">
-        <v>73.46099297715706</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I19" t="n">
-        <v>73.46099297715706</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J19" t="n">
-        <v>127.5300068450579</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K19" t="n">
-        <v>346.2188426883583</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L19" t="n">
-        <v>681.5916952397818</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M19" t="n">
-        <v>1045.584468606041</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N19" t="n">
-        <v>1406.356923807355</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O19" t="n">
-        <v>1723.572383385241</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>1971.484327489277</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q19" t="n">
-        <v>2059.690627148094</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R19" t="n">
-        <v>2059.690627148094</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S19" t="n">
-        <v>1870.25476637474</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="T19" t="n">
-        <v>1870.25476637474</v>
+        <v>2140.83764708305</v>
       </c>
       <c r="U19" t="n">
-        <v>1581.158941827144</v>
+        <v>2131.044820187095</v>
       </c>
       <c r="V19" t="n">
-        <v>1326.474453621257</v>
+        <v>1876.360331981209</v>
       </c>
       <c r="W19" t="n">
-        <v>1037.057283584296</v>
+        <v>1586.943161944248</v>
       </c>
       <c r="X19" t="n">
-        <v>1037.057283584296</v>
+        <v>1358.953611046231</v>
       </c>
       <c r="Y19" t="n">
-        <v>816.264704440766</v>
+        <v>1138.161031902701</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2337.784325038402</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C20" t="n">
-        <v>1968.82180809799</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D20" t="n">
-        <v>1610.55610949124</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>1224.767856892995</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F20" t="n">
-        <v>813.781952103388</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>398.9973290387429</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H20" t="n">
-        <v>104.3614378366437</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I20" t="n">
-        <v>73.4609929771571</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J20" t="n">
-        <v>286.2829520527398</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K20" t="n">
-        <v>655.986418551392</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L20" t="n">
-        <v>1151.538022017665</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M20" t="n">
-        <v>1734.604100889755</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N20" t="n">
-        <v>2331.718606873646</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O20" t="n">
-        <v>2882.221641452872</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P20" t="n">
-        <v>3317.562244269449</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q20" t="n">
-        <v>3596.312160183771</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R20" t="n">
-        <v>3673.049648857855</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S20" t="n">
-        <v>3569.317840206494</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T20" t="n">
-        <v>3364.60005567876</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U20" t="n">
-        <v>3111.092605119825</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V20" t="n">
-        <v>3111.092605119825</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W20" t="n">
-        <v>3111.092605119825</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X20" t="n">
-        <v>3111.092605119825</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y20" t="n">
-        <v>2724.384165102524</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5491740061753</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0961447250484</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1617350637971</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9242800583415</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3897220852265</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
-        <v>176.1806229879359</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>87.16605475010651</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I21" t="n">
-        <v>73.4609929771571</v>
+        <v>93.85065580060309</v>
       </c>
       <c r="J21" t="n">
-        <v>181.3984468692022</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K21" t="n">
-        <v>444.0355723203429</v>
+        <v>572.0073801158078</v>
       </c>
       <c r="L21" t="n">
-        <v>843.5061400789338</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M21" t="n">
-        <v>1329.026319016048</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="N21" t="n">
-        <v>1841.805417294994</v>
+        <v>2276.854030611023</v>
       </c>
       <c r="O21" t="n">
-        <v>2288.678317493154</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2384.514679350483</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2561.423142285563</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2561.423142285563</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.845758111661</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.823490172911</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.765774956674</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.613666724932</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.37630999673</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.524809791197</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.764511026243</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2300.675878107464</v>
+        <v>929.4491011061236</v>
       </c>
       <c r="C22" t="n">
-        <v>2131.739695179557</v>
+        <v>929.4491011061236</v>
       </c>
       <c r="D22" t="n">
-        <v>1981.623055767222</v>
+        <v>779.3324616937879</v>
       </c>
       <c r="E22" t="n">
-        <v>1833.709962184828</v>
+        <v>631.4193681113948</v>
       </c>
       <c r="F22" t="n">
-        <v>1686.820014686918</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="G22" t="n">
-        <v>1686.820014686918</v>
+        <v>317.3152257880632</v>
       </c>
       <c r="H22" t="n">
-        <v>1686.820014686918</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I22" t="n">
-        <v>1686.820014686918</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J22" t="n">
-        <v>1740.889028554819</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K22" t="n">
-        <v>1959.577864398119</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>2294.950716949543</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M22" t="n">
-        <v>2658.943490315802</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N22" t="n">
-        <v>3019.715945517115</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O22" t="n">
-        <v>3336.931405095002</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>3584.843349199038</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q22" t="n">
-        <v>3673.049648857855</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>3673.049648857855</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S22" t="n">
-        <v>3673.049648857855</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T22" t="n">
-        <v>3673.049648857855</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U22" t="n">
-        <v>3383.953824310259</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="V22" t="n">
-        <v>3220.523643016212</v>
+        <v>1770.842313657593</v>
       </c>
       <c r="W22" t="n">
-        <v>2931.106472979252</v>
+        <v>1481.425143620632</v>
       </c>
       <c r="X22" t="n">
-        <v>2703.116922081234</v>
+        <v>1331.890145079893</v>
       </c>
       <c r="Y22" t="n">
-        <v>2482.324342937704</v>
+        <v>1111.097565936363</v>
       </c>
     </row>
     <row r="23">
@@ -5980,10 +5980,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6071,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1336.167399417937</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2311.700279152292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2544.961939527175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.777212765616</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2415.384692536053</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2415.384692536053</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2415.384692536053</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2126.309465880251</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V25" t="n">
-        <v>1871.624977674364</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W25" t="n">
-        <v>1582.207807637403</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.218256739386</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3012.408157764291</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>3012.408157764291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2862.291518351956</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>2714.378424769563</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>2714.378424769563</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>2547.182325484443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2405.470494326641</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3642.838752636078</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3414.849201738061</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3194.056622594531</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6457,25 +6457,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,28 +6484,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6627,46 +6627,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797705</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R31" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S31" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T31" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X31" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="32">
@@ -6682,16 +6682,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6785,22 +6785,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>747.3584617859342</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>597.2418223735984</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>449.3287287912053</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>449.3287287912053</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6903,7 +6903,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3584617859342</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2418223735984</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3287287912053</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>449.3287287912053</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7140,7 +7140,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7168,7 +7168,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
@@ -7183,13 +7183,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7608,13 +7608,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1433.701365648819</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7648,19 +7648,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>559.7594328861248</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>390.823249958218</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2425.823211978716</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2242.968377633621</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2023.366912656562</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1734.29168600076</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1479.607197794873</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1190.190027757912</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>962.2004768598947</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>741.4078977163646</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>182.3656402706164</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>97.32166909127268</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>186.4490126143851</v>
+        <v>70.12741386431412</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8540,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>6.454437538929881</v>
+        <v>211.0329012241567</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>209.4348714989683</v>
+        <v>178.0446368831023</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>136.9698866949904</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>119.7435986580579</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>255.1805474109837</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>17.87885946369357</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>13.23167357738618</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>200.6994665666748</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9363529330115</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.8227719694285</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>14.75314649076003</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>218.2694018974151</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>291.6895322900782</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>30.59144041089175</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>102.6944905648478</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>50.29152613729244</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>52.17361061930518</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.8979900283342</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>143.6185946450596</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>92.50857761769484</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>83.18498022447886</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>219.0028168359312</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>276.4905529214255</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>50.29152613729209</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.396583038925883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.8979900283342</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>143.6185946450596</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>92.50857761769484</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>83.18498022447886</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
-        <v>187.5415021656201</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.0028168359312</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
-        <v>90.34176384272183</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>77.67000683370551</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>35.11263957635595</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>7.821049476759924</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>14.15991148283268</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909865318</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G34" t="n">
-        <v>35.12774237125717</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>35.12774237125711</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>39.70888054695388</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>203.6630665685114</v>
       </c>
       <c r="Y43" t="n">
-        <v>66.73277020259238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>45.44677382459292</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>945370.3857108525</v>
+        <v>941565.9839804729</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>947754.725399707</v>
+        <v>945370.3857108525</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>779442.3519848181</v>
+        <v>872005.0174998834</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>815315.9447413117</v>
+        <v>915213.622393031</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>815315.9447413118</v>
+        <v>915213.6223930313</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920238.8039515035</v>
+        <v>920238.8039515034</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>920238.8039515035</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>920238.8039515032</v>
+        <v>920238.8039515031</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>920238.8039515035</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>920238.8039515032</v>
+        <v>920238.8039515034</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>426246.3737136506</v>
+        <v>426246.3737136507</v>
       </c>
       <c r="F2" t="n">
-        <v>426246.3737136507</v>
+        <v>477670.0767775762</v>
       </c>
       <c r="G2" t="n">
-        <v>446176.1474672584</v>
+        <v>501674.8572737692</v>
       </c>
       <c r="H2" t="n">
-        <v>446176.1474672585</v>
+        <v>501674.8572737693</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="L2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="M2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="N2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="O2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="P2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26365,49 +26365,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1004321.885230094</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>104983.450530043</v>
+        <v>308174.1417414033</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>99404.18284596104</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171908</v>
+        <v>182072.9798171903</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>208781.7516454577</v>
       </c>
       <c r="G3" t="n">
-        <v>78916.35604225304</v>
+        <v>95052.24834831795</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>223720.7540227139</v>
+        <v>10818.91345744854</v>
       </c>
       <c r="J3" t="n">
-        <v>141841.1257376604</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>25342.99488522345</v>
+        <v>71651.52831447145</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>24921.83922824965</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341485</v>
+        <v>47552.26579341477</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>54893.66793774206</v>
       </c>
       <c r="O3" t="n">
-        <v>20903.17611780566</v>
+        <v>25177.21277645518</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171654.5725389693</v>
+        <v>253911.4645514928</v>
       </c>
       <c r="C4" t="n">
-        <v>143951.0939828188</v>
+        <v>171654.5725389695</v>
       </c>
       <c r="D4" t="n">
         <v>143951.0939828189</v>
@@ -26429,13 +26429,13 @@
         <v>12820.12292715301</v>
       </c>
       <c r="F4" t="n">
-        <v>12820.12292715301</v>
+        <v>12936.11401137948</v>
       </c>
       <c r="G4" t="n">
-        <v>12865.07075988082</v>
+        <v>12990.33152560508</v>
       </c>
       <c r="H4" t="n">
-        <v>12865.07075988082</v>
+        <v>12990.33152560508</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85199.0818558723</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
+        <v>85199.08185587224</v>
+      </c>
+      <c r="D5" t="n">
         <v>92937.77243984472</v>
       </c>
-      <c r="D5" t="n">
-        <v>92937.7724398447</v>
-      </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>91920.00353567499</v>
       </c>
       <c r="G5" t="n">
-        <v>81132.6929462722</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>81132.69294627223</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-748024.4334597588</v>
+        <v>-483896.1421817752</v>
       </c>
       <c r="C6" t="n">
-        <v>171278.7892124704</v>
+        <v>-51876.68997106791</v>
       </c>
       <c r="D6" t="n">
-        <v>276262.2397425135</v>
+        <v>176858.0568965524</v>
       </c>
       <c r="E6" t="n">
-        <v>157046.9304079135</v>
+        <v>153570.741109853</v>
       </c>
       <c r="F6" t="n">
-        <v>339119.9102251044</v>
+        <v>162612.9664095599</v>
       </c>
       <c r="G6" t="n">
-        <v>273262.0277188523</v>
+        <v>293031.0989303516</v>
       </c>
       <c r="H6" t="n">
-        <v>352178.3837611054</v>
+        <v>388083.3472786691</v>
       </c>
       <c r="I6" t="n">
-        <v>166626.4768128024</v>
+        <v>379180.9381237106</v>
       </c>
       <c r="J6" t="n">
-        <v>248506.1050978557</v>
+        <v>321000.697162045</v>
       </c>
       <c r="K6" t="n">
-        <v>365004.2359502927</v>
+        <v>318348.3232666877</v>
       </c>
       <c r="L6" t="n">
-        <v>390347.2308355162</v>
+        <v>365078.0123529094</v>
       </c>
       <c r="M6" t="n">
-        <v>342794.9650421013</v>
+        <v>342447.5857877443</v>
       </c>
       <c r="N6" t="n">
-        <v>390347.2308355162</v>
+        <v>335106.1836434171</v>
       </c>
       <c r="O6" t="n">
-        <v>369444.0547177105</v>
+        <v>364822.638804704</v>
       </c>
       <c r="P6" t="n">
-        <v>390347.2308355159</v>
+        <v>389999.8515811592</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>853.7106645376848</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1272.667109221546</v>
       </c>
       <c r="G3" t="n">
-        <v>1160.657719432699</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="H3" t="n">
-        <v>1160.657719432699</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1149567261639</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>1055.52402228035</v>
       </c>
       <c r="G4" t="n">
-        <v>918.2624122144633</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="H4" t="n">
-        <v>918.2624122144638</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>853.7106645376848</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>80.35422757985452</v>
+        <v>239.6556507682058</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>80.35422757985509</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>182.8904086282478</v>
       </c>
       <c r="G3" t="n">
-        <v>70.88101883940089</v>
+        <v>85.37393949483953</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>207.3177809089746</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,49 +27011,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1149567261639</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>98.46987537387497</v>
+        <v>278.4010767246569</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>98.46987537387577</v>
       </c>
       <c r="E4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>224.1225668780578</v>
       </c>
       <c r="G4" t="n">
-        <v>86.86095681217049</v>
+        <v>104.6212680456561</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>254.4458758851846</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261639</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>98.46987537387497</v>
+        <v>278.4010767246567</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>98.46987537387599</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>224.1225668780578</v>
       </c>
       <c r="O4" t="n">
-        <v>86.86095681217057</v>
+        <v>104.6212680456561</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27257,25 +27257,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261639</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>98.46987537387497</v>
+        <v>278.4010767246569</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>98.46987537387577</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>224.1225668780578</v>
       </c>
       <c r="O4" t="n">
-        <v>86.86095681217049</v>
+        <v>104.6212680456561</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>250.9947133678745</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
-        <v>304.326804756183</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>288.860244956046</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27469,10 +27469,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27508,22 +27508,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8205739680685</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>168.0325680232536</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>193.9203333571521</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.914626115750053</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.5398113612452</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>109.1541654470835</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>108.0728512656385</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>197.1876907596158</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>221.3678187343026</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>232.3429560985387</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>25.66908944721905</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>325.7951139122968</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>47.3580343309374</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27751,7 +27751,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>89.42899091823715</v>
+        <v>140.5639998250494</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>93.73794346476365</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>5.228523965558338</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>20.63943877164965</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>195.5290386500999</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29699,7 +29699,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.432002671508278</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
-        <v>35.14799735958416</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>132.312282993323</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>291.286936740926</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>436.5636098258715</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>541.5957615840431</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>602.6296390934783</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>612.3808166839013</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>578.2538401190908</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>493.5262741662302</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>370.6176784928398</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141321</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>78.20676087699496</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
-        <v>15.02359169452749</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.836283316175398</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>17.73463097464134</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>63.2229124209512</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>173.4885040076063</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>296.5194861913579</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>398.7070419616801</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>465.2723121730381</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>477.5866858152847</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>436.8985133884509</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>350.6495746475634</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
-        <v>234.3999545349508</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>114.0106430867497</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>34.10815721053861</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>7.40151038405785</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.539478247526972</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>13.68736114619436</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>46.29630948017478</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>108.8411121001569</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>178.8593818490428</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>228.8784296368737</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>241.3202129282508</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>235.582157642014</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>217.5982526595398</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>186.1928964099894</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.9103103451904</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>69.22054011153094</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>26.82890727735641</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>6.577770693978881</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.08397154077419859</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>5.116249685312743</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>52.39679208970914</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>197.2442159930197</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>434.2352967288128</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>650.8061459081014</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>807.3825722149915</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>898.3686775561719</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>912.9052219745668</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>862.0305141662382</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>735.7231000600797</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>552.4974082048169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>321.3836192950269</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>116.5865397040643</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>22.39638299745654</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4092999748250194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.737434914174646</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>26.43785825005514</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>94.24940384329373</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>148.9072571993069</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>594.3715588869117</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>693.6035745257424</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>711.9611972615892</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>651.3054025843509</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>522.7300056725252</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>50.84665290144569</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>11.03378371108113</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.180094402248332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.29497347564541</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>20.40440053801102</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>69.01611143122746</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>162.2546247281305</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>266.6341910795304</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>341.1999656427731</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>359.7475240050346</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>351.1935319594475</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>324.3840690848623</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>277.5666101816957</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>192.1727334924534</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>103.1903528231109</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>39.99512866192955</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>9.805795759575842</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1251803713988407</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.665960681136475</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H17" t="n">
-        <v>47.78526982568894</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I17" t="n">
-        <v>179.8844491595142</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>396.0175803606073</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>593.5276959931144</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L17" t="n">
-        <v>736.323590188445</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M17" t="n">
-        <v>819.3018684516057</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N17" t="n">
-        <v>832.5590292368848</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O17" t="n">
-        <v>786.161882713834</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P17" t="n">
-        <v>670.9709783982771</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q17" t="n">
-        <v>503.8712615050769</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R17" t="n">
-        <v>293.0981526364394</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
-        <v>106.3255790213975</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>20.42524288167493</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
-        <v>0.373276854490918</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.496509056892976</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H18" t="n">
-        <v>24.11102168104532</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
-        <v>85.95436884478009</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J18" t="n">
-        <v>235.8653578707526</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K18" t="n">
-        <v>403.131464682582</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L18" t="n">
-        <v>542.0600037784508</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M18" t="n">
-        <v>632.558457090821</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N18" t="n">
-        <v>649.3003972135815</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O18" t="n">
-        <v>593.9830123213738</v>
+        <v>421.3049304638558</v>
       </c>
       <c r="P18" t="n">
-        <v>409.4742304369656</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>46.37156077167432</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T18" t="n">
-        <v>10.06268343545896</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1642440169008537</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.092989330124539</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H19" t="n">
-        <v>18.60857786238001</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>62.94189730956344</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J19" t="n">
-        <v>147.9743456398049</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K19" t="n">
-        <v>243.1673058090146</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L19" t="n">
-        <v>311.1704318623338</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>328.0855910848857</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>320.2844490362399</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O19" t="n">
-        <v>295.8345282252395</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
-        <v>253.1375458906987</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q19" t="n">
-        <v>175.2593156343376</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>94.10841115269062</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>36.47509587135219</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T19" t="n">
-        <v>8.942772592350302</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1141630543704295</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.665960681136475</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>47.78526982568894</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
-        <v>179.8844491595142</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>396.0175803606073</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>593.5276959931144</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>736.323590188445</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>819.3018684516057</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>832.5590292368848</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>786.161882713834</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>670.9709783982771</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>503.8712615050769</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>293.0981526364394</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
-        <v>106.3255790213975</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>20.42524288167493</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
-        <v>0.373276854490918</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.496509056892976</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>24.11102168104532</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>85.95436884478009</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J21" t="n">
-        <v>235.8653578707526</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>403.131464682582</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>542.0600037784508</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>632.558457090821</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>649.3003972135815</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>593.9830123213738</v>
+        <v>421.3049304638554</v>
       </c>
       <c r="P21" t="n">
-        <v>230.7788133308241</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>318.677191192163</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>46.37156077167432</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>10.06268343545896</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1642440169008537</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.092989330124539</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>18.60857786238001</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>62.94189730956344</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
-        <v>147.9743456398049</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>243.1673058090146</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>311.1704318623338</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>328.0855910848857</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>320.2844490362399</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>295.8345282252395</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
-        <v>253.1375458906987</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>175.2593156343376</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>94.10841115269062</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>36.47509587135219</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
-        <v>8.942772592350302</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1141630543704295</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>153.8606640989137</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33505,25 +33505,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>110.2410322142397</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>216.4737587808909</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>305.8293466140559</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>372.2834058662056</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>382.9677530873104</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>348.155628697404</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>262.2932784109606</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.3119886183904</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>46.65087734093964</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>341.0436874876154</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>260.1526621818059</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>323.1382782510198</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>346.2449737319514</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>294.3022689440064</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>216.6751672332332</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>304.4954681847784</v>
+        <v>125.9385470877691</v>
       </c>
       <c r="R3" t="n">
-        <v>13.85280893410659</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.48193198348417</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>156.5898900231599</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>256.4684548971899</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>280.9040898900913</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>279.7143300212426</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>242.1833805735795</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>183.4714556748829</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.74826709349601</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>172.7419126813483</v>
       </c>
       <c r="K6" t="n">
-        <v>373.0365088578699</v>
+        <v>228.8054610813128</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>304.4954681847781</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>341.8791195350528</v>
+        <v>546.4575832202797</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>253.1893922021266</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>430.7162948631208</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>571.6161572450042</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>668.0224443288992</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>683.4921583779758</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>631.9323027445514</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>504.4901043048101</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>330.1917183303674</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>105.7980814808948</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>11.06581822494786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>455.8171791070375</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>551.469540603724</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>580.6194851782559</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>508.7091581399064</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>388.7555982581949</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>68.89544461145772</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>244.3646992536475</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>368.7899909030892</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>399.3314009668752</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>395.325704338676</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>348.969196998902</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>274.8451694465892</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>106.010690240759</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>214.971675833921</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>373.4378449481339</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L17" t="n">
-        <v>500.5571752184578</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M17" t="n">
-        <v>588.955635224333</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N17" t="n">
-        <v>603.145965640294</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O17" t="n">
-        <v>556.0636712921472</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P17" t="n">
-        <v>439.7379826430076</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q17" t="n">
-        <v>281.5655716306275</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R17" t="n">
-        <v>77.51261482230728</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.049527853053078</v>
       </c>
       <c r="J18" t="n">
-        <v>109.0277312040859</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K18" t="n">
-        <v>265.290025708223</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L18" t="n">
-        <v>403.5056239985766</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M18" t="n">
-        <v>490.4244231688027</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>517.9586851302482</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O18" t="n">
-        <v>451.3867678769294</v>
+        <v>278.7086860194114</v>
       </c>
       <c r="P18" t="n">
-        <v>275.4998230226353</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>54.61516552313213</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K19" t="n">
-        <v>220.8978139831318</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L19" t="n">
-        <v>338.76045712265</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M19" t="n">
-        <v>367.6694680467263</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
-        <v>364.4166214154685</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O19" t="n">
-        <v>320.4196561392792</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>250.4161051555922</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.0972723826432</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>214.971675833921</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>373.4378449481339</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>500.5571752184578</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>588.955635224333</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
-        <v>603.145965640294</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>556.0636712921472</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>439.7379826430076</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>281.5655716306275</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>77.51261482230728</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J21" t="n">
-        <v>109.0277312040859</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>265.290025708223</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>403.5056239985766</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>490.4244231688027</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>517.9586851302482</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>451.3867678769294</v>
+        <v>278.7086860194109</v>
       </c>
       <c r="P21" t="n">
-        <v>96.80440591649388</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>178.6954171061415</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>54.61516552313213</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
-        <v>220.8978139831318</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>338.76045712265</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>367.6694680467263</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
-        <v>364.4166214154685</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>320.4196561392792</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>250.4161051555922</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.0972723826432</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.181160134949776</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36995,7 +36995,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191275</v>
       </c>
       <c r="M31" t="n">
         <v>426.2724270010451</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1421655.322457043</v>
+        <v>1428492.935456315</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12426458.88989895</v>
+        <v>12395515.18280278</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>859256.4419733178</v>
+        <v>1508940.932681107</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10537266.81032782</v>
+        <v>10303181.69706013</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>130.9356567043873</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015063</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015063</v>
+        <v>14.83397917254953</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>71.99232405977335</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>11.85265184632536</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -825,22 +825,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>134.0814754832329</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>53.91567440413879</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>167.7617820786572</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>182.4031684223848</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>88.14919951609785</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1059,19 +1059,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>47.97968987670143</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>56.6236909345665</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,7 +1150,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>295.790028596847</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>212.7317071692743</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>123.0089668035454</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>90.69811547110066</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>75.45713216103746</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>116.5631275042182</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>67.63321619982548</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>105.9660567309793</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.1864878298223</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>269.1991505623644</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>16.22539291913769</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>92.43352988218109</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.606082249036</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>85.79758598644133</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>5.272976156706264</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>120.8365182023921</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>189.1309449837405</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7612876787265</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>113.5103646250813</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6960058828134</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>86.43436349603083</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>74.10303855405861</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>184.0214693750427</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>203.3866471779456</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1938489850921</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127576</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045443</v>
+        <v>291.6895322900782</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081966</v>
+        <v>102.6944905648479</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374742</v>
+        <v>202.6706066824564</v>
       </c>
       <c r="U17" t="n">
-        <v>200.6173698503539</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>11.81078307175865</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4224477376697</v>
+        <v>134.8470081063177</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561457</v>
+        <v>88.12442255545116</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>13.56801115521995</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952162</v>
+        <v>125.3116103321635</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3907690366107</v>
+        <v>190.1020452593627</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7492064608734</v>
+        <v>225.777138064074</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>110.8312219420658</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440905</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>187.5415021656201</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4819944627618</v>
+        <v>219.0028168359312</v>
       </c>
       <c r="U19" t="n">
-        <v>9.694898626994931</v>
+        <v>286.2048663021205</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127576</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045443</v>
+        <v>5.872264837323089</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>30.59144041089186</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.32106446352753</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374742</v>
+        <v>202.6706066824564</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9088959876463</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4224477376697</v>
+        <v>134.8470081063177</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561455</v>
+        <v>88.12442255545116</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>13.56801115521995</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952162</v>
+        <v>125.3116103321635</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3907690366107</v>
+        <v>190.1020452593627</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7492064608734</v>
+        <v>225.777138064074</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>35.73431189167639</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>92.50857761769488</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2048663021205</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>148.0396485553316</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,19 +2532,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>278.7019488598311</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>145.0891016767036</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>83.06560892427807</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7122866515512</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>111.321323070213</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>22.04658882052573</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3988,10 +3988,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>686.1106626298174</v>
+        <v>1241.481122113637</v>
       </c>
       <c r="C2" t="n">
-        <v>686.1106626298174</v>
+        <v>1241.481122113637</v>
       </c>
       <c r="D2" t="n">
-        <v>686.1106626298174</v>
+        <v>1241.481122113637</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8524235344767</v>
+        <v>855.6928695153931</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672986</v>
+        <v>444.7069647257856</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946894</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298174</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U2" t="n">
-        <v>686.1106626298174</v>
+        <v>1572.544009457208</v>
       </c>
       <c r="V2" t="n">
-        <v>686.1106626298174</v>
+        <v>1241.481122113637</v>
       </c>
       <c r="W2" t="n">
-        <v>686.1106626298174</v>
+        <v>1241.481122113637</v>
       </c>
       <c r="X2" t="n">
-        <v>686.1106626298174</v>
+        <v>1241.481122113637</v>
       </c>
       <c r="Y2" t="n">
-        <v>686.1106626298174</v>
+        <v>1241.481122113637</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>648.5716248254445</v>
+        <v>794.4221168351218</v>
       </c>
       <c r="C3" t="n">
-        <v>474.1185955443175</v>
+        <v>619.9690875539948</v>
       </c>
       <c r="D3" t="n">
-        <v>325.1841858830662</v>
+        <v>471.0346778927434</v>
       </c>
       <c r="E3" t="n">
-        <v>165.9467308776107</v>
+        <v>311.7972228872879</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776107</v>
+        <v>165.2626649141729</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>165.2626649141729</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>69.80729798300612</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>214.3836900926279</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>633.2955414799095</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>890.846677039897</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>1210.753572508406</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>1553.536096503038</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>1844.895342757604</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>2059.403758318504</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>2095.740307652356</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>1867.638717785621</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>1632.486609553878</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.519636212815</v>
+        <v>1378.249252825676</v>
       </c>
       <c r="X3" t="n">
-        <v>1024.547260610466</v>
+        <v>1170.397752620144</v>
       </c>
       <c r="Y3" t="n">
-        <v>816.7869618455125</v>
+        <v>962.6374538551897</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>818.7467779998875</v>
+        <v>659.3521798724533</v>
       </c>
       <c r="C4" t="n">
-        <v>649.8105950719806</v>
+        <v>490.4159969445465</v>
       </c>
       <c r="D4" t="n">
-        <v>499.6939556596449</v>
+        <v>340.2993575322107</v>
       </c>
       <c r="E4" t="n">
-        <v>351.7808620772518</v>
+        <v>340.2993575322107</v>
       </c>
       <c r="F4" t="n">
-        <v>204.8909145793414</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>1350.9195448722</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>1350.9195448722</v>
       </c>
       <c r="U4" t="n">
-        <v>1000.395242830127</v>
+        <v>1061.793223846223</v>
       </c>
       <c r="V4" t="n">
-        <v>1000.395242830127</v>
+        <v>1061.793223846223</v>
       </c>
       <c r="W4" t="n">
-        <v>1000.395242830127</v>
+        <v>1061.793223846223</v>
       </c>
       <c r="X4" t="n">
-        <v>1000.395242830127</v>
+        <v>1061.793223846223</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000.395242830127</v>
+        <v>841.0006447026931</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1597.614362171455</v>
+        <v>1078.689549231438</v>
       </c>
       <c r="C5" t="n">
-        <v>1228.651845231044</v>
+        <v>709.7270322910265</v>
       </c>
       <c r="D5" t="n">
-        <v>870.3861466242934</v>
+        <v>709.7270322910265</v>
       </c>
       <c r="E5" t="n">
-        <v>870.3861466242934</v>
+        <v>709.7270322910265</v>
       </c>
       <c r="F5" t="n">
-        <v>459.4002418346858</v>
+        <v>298.7411275014189</v>
       </c>
       <c r="G5" t="n">
-        <v>43.36919653809306</v>
+        <v>287.0767812661119</v>
       </c>
       <c r="H5" t="n">
-        <v>43.36919653809306</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809306</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>152.5078184301901</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232717</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711874</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.14846457873</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135167</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545596</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172447</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904653</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904653</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904653</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>1984.214202235577</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>1984.214202235577</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>1984.214202235577</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W5" t="n">
-        <v>1984.214202235577</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X5" t="n">
-        <v>1984.214202235577</v>
+        <v>1855.428721271372</v>
       </c>
       <c r="Y5" t="n">
-        <v>1984.214202235577</v>
+        <v>1465.28938929556</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>761.5682439298478</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C6" t="n">
-        <v>587.1152146487208</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D6" t="n">
-        <v>438.1808049874695</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E6" t="n">
-        <v>278.943349982014</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F6" t="n">
-        <v>132.408792008899</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G6" t="n">
-        <v>43.36919653809306</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H6" t="n">
-        <v>43.36919653809306</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809306</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>214.3836900926279</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>440.9010965631276</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L6" t="n">
-        <v>698.4522321231152</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M6" t="n">
-        <v>1018.359127591624</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N6" t="n">
-        <v>1361.141651586256</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O6" t="n">
-        <v>1652.500897840822</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P6" t="n">
-        <v>1867.009313401722</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q6" t="n">
-        <v>2168.459826904653</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R6" t="n">
-        <v>2168.459826904653</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S6" t="n">
-        <v>2029.495166406371</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T6" t="n">
-        <v>1834.784844880347</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U6" t="n">
-        <v>1834.784844880347</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V6" t="n">
-        <v>1599.632736648604</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W6" t="n">
-        <v>1345.395379920403</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X6" t="n">
-        <v>1137.54387971487</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y6" t="n">
-        <v>929.7835809499159</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>509.311966376246</v>
+        <v>417.3862008411932</v>
       </c>
       <c r="C7" t="n">
-        <v>340.3757834483391</v>
+        <v>248.4500179132862</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2591440360034</v>
+        <v>248.4500179132862</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2591440360034</v>
+        <v>248.4500179132862</v>
       </c>
       <c r="F7" t="n">
-        <v>43.36919653809306</v>
+        <v>248.4500179132862</v>
       </c>
       <c r="G7" t="n">
-        <v>43.36919653809306</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>43.36919653809306</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>43.36919653809306</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>58.6963092017423</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
-        <v>213.7203003246705</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>467.6240706728883</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>745.7191196640786</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
-        <v>1022.636306385109</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1262.397853152952</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1444.034594271086</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1486.355378693647</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1486.355378693647</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1429.159731284994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.159731284994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U7" t="n">
-        <v>1429.159731284994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V7" t="n">
-        <v>1429.159731284994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W7" t="n">
-        <v>1139.742561248033</v>
+        <v>1047.81679571298</v>
       </c>
       <c r="X7" t="n">
-        <v>911.7530103500159</v>
+        <v>819.827244814963</v>
       </c>
       <c r="Y7" t="n">
-        <v>690.9604312064857</v>
+        <v>599.0346656714329</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1158.463096854644</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="C8" t="n">
-        <v>1158.463096854644</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>1158.463096854644</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>772.6748442563996</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>361.6889394667921</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G8" t="n">
-        <v>350.024593231485</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.250581723851</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.83159218888</v>
+        <v>2347.45881610796</v>
       </c>
       <c r="W8" t="n">
-        <v>1545.062936918766</v>
+        <v>1994.690160837846</v>
       </c>
       <c r="X8" t="n">
-        <v>1545.062936918766</v>
+        <v>1994.690160837846</v>
       </c>
       <c r="Y8" t="n">
-        <v>1545.062936918766</v>
+        <v>1604.550828862034</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4871,7 +4871,7 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4880,34 +4880,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.02341329261</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4922,7 +4922,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082458</v>
+        <v>749.1451353350891</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>580.2089524071822</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800312</v>
+        <v>430.0923129948465</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800312</v>
+        <v>430.0923129948465</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>430.0923129948465</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U10" t="n">
-        <v>1544.831862022881</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V10" t="n">
-        <v>1290.147373816994</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="W10" t="n">
-        <v>1000.730203780033</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="X10" t="n">
-        <v>772.7406528820156</v>
+        <v>930.7936001653288</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.9480737384855</v>
+        <v>930.7936001653288</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1712.341567565137</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C11" t="n">
-        <v>1343.379050624725</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D11" t="n">
-        <v>985.1133520179749</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="E11" t="n">
-        <v>599.3250994197306</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>599.3250994197306</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>184.252649264727</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2862.54649786615</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>2489.08073960507</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2098.941407629259</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>362.8459426266613</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C13" t="n">
-        <v>362.8459426266613</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D13" t="n">
-        <v>212.7293032143256</v>
+        <v>302.5313330572882</v>
       </c>
       <c r="E13" t="n">
-        <v>212.7293032143256</v>
+        <v>302.5313330572882</v>
       </c>
       <c r="F13" t="n">
-        <v>212.7293032143256</v>
+        <v>302.5313330572882</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>134.8284964320071</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1705.527932658018</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>872.3234075408143</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>765.2869866004312</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y13" t="n">
-        <v>544.4944074569011</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2294.692414305509</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C14" t="n">
-        <v>1925.729897365098</v>
+        <v>1535.524858594925</v>
       </c>
       <c r="D14" t="n">
-        <v>1567.464198758347</v>
+        <v>1177.259159988175</v>
       </c>
       <c r="E14" t="n">
-        <v>1181.675946160103</v>
+        <v>791.4709073899305</v>
       </c>
       <c r="F14" t="n">
-        <v>770.6900413704955</v>
+        <v>380.485002600323</v>
       </c>
       <c r="G14" t="n">
-        <v>356.3602556838063</v>
+        <v>380.485002600323</v>
       </c>
       <c r="H14" t="n">
-        <v>84.44192178242803</v>
+        <v>82.90140220909018</v>
       </c>
       <c r="I14" t="n">
-        <v>84.44192178242803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>335.0994200625328</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>761.5085519770223</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1327.408547649577</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1988.750767535187</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2665.408004329383</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>3291.020984046489</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3790.466187308251</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>4117.355988455315</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>4222.096089121401</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>4128.728887220208</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>4128.728887220208</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>4128.728887220208</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V14" t="n">
-        <v>3797.665999876637</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W14" t="n">
-        <v>3444.897344606523</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X14" t="n">
-        <v>3071.431586345443</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y14" t="n">
-        <v>2681.292254369631</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5575801601279</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C15" t="n">
-        <v>767.104550879001</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1701412177497</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9326862122941</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3981282391791</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G15" t="n">
-        <v>176.4323885936882</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H15" t="n">
-        <v>89.76816032455557</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I15" t="n">
-        <v>84.44192178242803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>84.44192178242803</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>95.39708182512641</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>546.6560891410935</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1092.61093433878</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1667.424224665253</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2171.046291223761</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2555.914333499374</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2555.914333499374</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2555.914333499374</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2433.857244406048</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.815885836613</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.774181110627</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.622072878884</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.384716150683</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.53321594515</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.772917180196</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>339.1190625691393</v>
+        <v>181.169050396912</v>
       </c>
       <c r="C16" t="n">
-        <v>339.1190625691393</v>
+        <v>181.169050396912</v>
       </c>
       <c r="D16" t="n">
-        <v>339.1190625691393</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E16" t="n">
-        <v>339.1190625691393</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1190625691393</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>171.7493596572066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>171.7493596572066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>84.44192178242803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>152.6484119477712</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>394.5694642088822</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>759.6715552029406</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>1155.009642160147</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1546.382089455436</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1891.861594484349</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2163.958312236472</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2268.908895574824</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>2194.057341479815</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>2008.177069383812</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1802.736011628312</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1513.651315683774</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>1258.966827477887</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W16" t="n">
-        <v>969.5496574409265</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X16" t="n">
-        <v>741.5601065429091</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y16" t="n">
-        <v>520.767527399379</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.224468905844</v>
+        <v>1892.09925711427</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.261951965432</v>
+        <v>1523.136740173858</v>
       </c>
       <c r="D17" t="n">
-        <v>1589.996253358682</v>
+        <v>1164.871041567108</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.208000760437</v>
+        <v>779.0827889688638</v>
       </c>
       <c r="F17" t="n">
-        <v>793.22209597083</v>
+        <v>368.0968841792563</v>
       </c>
       <c r="G17" t="n">
-        <v>379.2389888872364</v>
+        <v>368.0968841792563</v>
       </c>
       <c r="H17" t="n">
-        <v>92.8116232260805</v>
+        <v>73.46099297715703</v>
       </c>
       <c r="I17" t="n">
-        <v>92.8116232260805</v>
+        <v>73.46099297715703</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251935</v>
+        <v>286.2829520527384</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128756</v>
+        <v>655.9864185513902</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.45766301865</v>
+        <v>1151.538022017663</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957687</v>
+        <v>1734.604100889752</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874793</v>
+        <v>2331.718606873643</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333932</v>
+        <v>2882.221641452868</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.915188021279</v>
+        <v>3317.562244269445</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127287</v>
+        <v>3596.312160183767</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304025</v>
+        <v>3673.049648857851</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070874</v>
+        <v>3569.31784020649</v>
       </c>
       <c r="T17" t="n">
-        <v>4353.904749750192</v>
+        <v>3364.600055678756</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.260941820542</v>
+        <v>3364.600055678756</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.198054476972</v>
+        <v>3033.537168335185</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.429399206857</v>
+        <v>2680.768513065071</v>
       </c>
       <c r="X17" t="n">
-        <v>3093.963640945778</v>
+        <v>2668.838429154204</v>
       </c>
       <c r="Y17" t="n">
-        <v>2703.824308969966</v>
+        <v>2278.699097178392</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>942.6241165038822</v>
+        <v>941.5491740061753</v>
       </c>
       <c r="C18" t="n">
-        <v>768.1710872227552</v>
+        <v>767.0961447250484</v>
       </c>
       <c r="D18" t="n">
-        <v>619.2366775615039</v>
+        <v>618.1617350637971</v>
       </c>
       <c r="E18" t="n">
-        <v>459.9992225560484</v>
+        <v>458.9242800583415</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829333</v>
+        <v>312.3897220852265</v>
       </c>
       <c r="G18" t="n">
-        <v>177.6844143428629</v>
+        <v>176.1806229879359</v>
       </c>
       <c r="H18" t="n">
-        <v>92.8116232260805</v>
+        <v>87.16605475010648</v>
       </c>
       <c r="I18" t="n">
-        <v>93.85065580060305</v>
+        <v>73.46099297715703</v>
       </c>
       <c r="J18" t="n">
-        <v>241.4986375524489</v>
+        <v>181.398446869202</v>
       </c>
       <c r="K18" t="n">
-        <v>572.0073801158076</v>
+        <v>444.0355723203425</v>
       </c>
       <c r="L18" t="n">
-        <v>1062.739712959559</v>
+        <v>843.506140078933</v>
       </c>
       <c r="M18" t="n">
-        <v>1654.758067211686</v>
+        <v>1329.026319016047</v>
       </c>
       <c r="N18" t="n">
-        <v>2276.854030611023</v>
+        <v>1841.805417294992</v>
       </c>
       <c r="O18" t="n">
-        <v>2552.77562977024</v>
+        <v>2288.678317493152</v>
       </c>
       <c r="P18" t="n">
-        <v>2552.77562977024</v>
+        <v>2561.423142285563</v>
       </c>
       <c r="Q18" t="n">
-        <v>2552.77562977024</v>
+        <v>2561.423142285563</v>
       </c>
       <c r="R18" t="n">
-        <v>2552.77562977024</v>
+        <v>2561.423142285563</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.845758111661</v>
       </c>
       <c r="T18" t="n">
-        <v>2243.870218930011</v>
+        <v>2242.823490172911</v>
       </c>
       <c r="U18" t="n">
-        <v>2015.840717454381</v>
+        <v>2014.765774956674</v>
       </c>
       <c r="V18" t="n">
-        <v>1780.688609222638</v>
+        <v>1779.613666724932</v>
       </c>
       <c r="W18" t="n">
-        <v>1526.451252494437</v>
+        <v>1525.37630999673</v>
       </c>
       <c r="X18" t="n">
-        <v>1318.599752288904</v>
+        <v>1317.524809791197</v>
       </c>
       <c r="Y18" t="n">
-        <v>1110.83945352395</v>
+        <v>1109.764511026243</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.5125670724609</v>
+        <v>185.411722211567</v>
       </c>
       <c r="C19" t="n">
-        <v>787.576384144554</v>
+        <v>185.411722211567</v>
       </c>
       <c r="D19" t="n">
-        <v>637.4597447322183</v>
+        <v>185.411722211567</v>
       </c>
       <c r="E19" t="n">
-        <v>489.5466511498252</v>
+        <v>185.411722211567</v>
       </c>
       <c r="F19" t="n">
-        <v>342.6567036519148</v>
+        <v>185.411722211567</v>
       </c>
       <c r="G19" t="n">
-        <v>175.4425088264937</v>
+        <v>73.46099297715703</v>
       </c>
       <c r="H19" t="n">
-        <v>175.4425088264937</v>
+        <v>73.46099297715703</v>
       </c>
       <c r="I19" t="n">
-        <v>92.8116232260805</v>
+        <v>73.46099297715703</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156343</v>
+        <v>127.5300068450578</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861979</v>
+        <v>346.2188426883581</v>
       </c>
       <c r="L19" t="n">
-        <v>819.184291169332</v>
+        <v>681.5916952397813</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.413883213791</v>
+        <v>1045.58446860604</v>
       </c>
       <c r="N19" t="n">
-        <v>1653.109749005498</v>
+        <v>1406.356923807354</v>
       </c>
       <c r="O19" t="n">
-        <v>2020.132206020528</v>
+        <v>1723.57238338524</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.662640856732</v>
+        <v>1971.484327489276</v>
       </c>
       <c r="Q19" t="n">
-        <v>2428.375774410167</v>
+        <v>2059.690627148093</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.516429368668</v>
+        <v>2059.690627148093</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.516429368668</v>
+        <v>1870.254766374739</v>
       </c>
       <c r="T19" t="n">
-        <v>2140.83764708305</v>
+        <v>1649.039799873798</v>
       </c>
       <c r="U19" t="n">
-        <v>2131.044820187095</v>
+        <v>1359.943975326202</v>
       </c>
       <c r="V19" t="n">
-        <v>1876.360331981209</v>
+        <v>1105.259487120315</v>
       </c>
       <c r="W19" t="n">
-        <v>1586.943161944248</v>
+        <v>815.8423170833541</v>
       </c>
       <c r="X19" t="n">
-        <v>1358.953611046231</v>
+        <v>587.8527661853368</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.161031902701</v>
+        <v>367.0601870418067</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.224468905844</v>
+        <v>1634.295391415418</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.261951965432</v>
+        <v>1265.332874475007</v>
       </c>
       <c r="D20" t="n">
-        <v>1589.996253358682</v>
+        <v>907.0671758682563</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.208000760437</v>
+        <v>521.278923270012</v>
       </c>
       <c r="F20" t="n">
-        <v>793.22209597083</v>
+        <v>110.2930184804044</v>
       </c>
       <c r="G20" t="n">
-        <v>379.2389888872364</v>
+        <v>110.2930184804044</v>
       </c>
       <c r="H20" t="n">
-        <v>92.8116232260805</v>
+        <v>104.3614378366437</v>
       </c>
       <c r="I20" t="n">
-        <v>92.8116232260805</v>
+        <v>73.46099297715702</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251935</v>
+        <v>286.2829520527387</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128754</v>
+        <v>655.9864185513909</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.45766301865</v>
+        <v>1151.538022017663</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957687</v>
+        <v>1734.604100889752</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874793</v>
+        <v>2331.718606873643</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333932</v>
+        <v>2882.221641452868</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.91518802128</v>
+        <v>3317.562244269446</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127287</v>
+        <v>3596.312160183767</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304025</v>
+        <v>3673.049648857851</v>
       </c>
       <c r="S20" t="n">
-        <v>4605.913419421674</v>
+        <v>3673.049648857851</v>
       </c>
       <c r="T20" t="n">
-        <v>4404.704271100993</v>
+        <v>3468.331864330117</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.260941820542</v>
+        <v>3468.331864330117</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.198054476972</v>
+        <v>3137.268976986546</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.429399206857</v>
+        <v>2784.500321716432</v>
       </c>
       <c r="X20" t="n">
-        <v>3093.963640945778</v>
+        <v>2411.034563455352</v>
       </c>
       <c r="Y20" t="n">
-        <v>2703.824308969966</v>
+        <v>2020.89523147954</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>942.6241165038822</v>
+        <v>941.5491740061753</v>
       </c>
       <c r="C21" t="n">
-        <v>768.1710872227552</v>
+        <v>767.0961447250484</v>
       </c>
       <c r="D21" t="n">
-        <v>619.2366775615039</v>
+        <v>618.1617350637971</v>
       </c>
       <c r="E21" t="n">
-        <v>459.9992225560484</v>
+        <v>458.9242800583415</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829333</v>
+        <v>312.3897220852265</v>
       </c>
       <c r="G21" t="n">
-        <v>177.6844143428629</v>
+        <v>176.1806229879359</v>
       </c>
       <c r="H21" t="n">
-        <v>92.8116232260805</v>
+        <v>87.16605475010647</v>
       </c>
       <c r="I21" t="n">
-        <v>93.85065580060309</v>
+        <v>73.46099297715702</v>
       </c>
       <c r="J21" t="n">
-        <v>241.4986375524491</v>
+        <v>181.398446869202</v>
       </c>
       <c r="K21" t="n">
-        <v>572.0073801158078</v>
+        <v>444.0355723203425</v>
       </c>
       <c r="L21" t="n">
-        <v>1062.739712959559</v>
+        <v>843.506140078933</v>
       </c>
       <c r="M21" t="n">
-        <v>1654.758067211687</v>
+        <v>1329.026319016047</v>
       </c>
       <c r="N21" t="n">
-        <v>2276.854030611023</v>
+        <v>1841.805417294992</v>
       </c>
       <c r="O21" t="n">
-        <v>2552.77562977024</v>
+        <v>2288.678317493152</v>
       </c>
       <c r="P21" t="n">
-        <v>2552.77562977024</v>
+        <v>2561.423142285563</v>
       </c>
       <c r="Q21" t="n">
-        <v>2552.77562977024</v>
+        <v>2561.423142285563</v>
       </c>
       <c r="R21" t="n">
-        <v>2552.77562977024</v>
+        <v>2561.423142285563</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.845758111661</v>
       </c>
       <c r="T21" t="n">
-        <v>2243.870218930011</v>
+        <v>2242.823490172911</v>
       </c>
       <c r="U21" t="n">
-        <v>2015.840717454381</v>
+        <v>2014.765774956674</v>
       </c>
       <c r="V21" t="n">
-        <v>1780.688609222638</v>
+        <v>1779.613666724932</v>
       </c>
       <c r="W21" t="n">
-        <v>1526.451252494437</v>
+        <v>1525.37630999673</v>
       </c>
       <c r="X21" t="n">
-        <v>1318.599752288904</v>
+        <v>1317.524809791197</v>
       </c>
       <c r="Y21" t="n">
-        <v>1110.83945352395</v>
+        <v>1109.764511026243</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.4491011061236</v>
+        <v>816.8551286293913</v>
       </c>
       <c r="C22" t="n">
-        <v>929.4491011061236</v>
+        <v>647.9189457014844</v>
       </c>
       <c r="D22" t="n">
-        <v>779.3324616937879</v>
+        <v>497.8023062891486</v>
       </c>
       <c r="E22" t="n">
-        <v>631.4193681113948</v>
+        <v>349.8892127067555</v>
       </c>
       <c r="F22" t="n">
-        <v>484.5294206134844</v>
+        <v>202.9992652088452</v>
       </c>
       <c r="G22" t="n">
-        <v>317.3152257880632</v>
+        <v>166.9040006717983</v>
       </c>
       <c r="H22" t="n">
-        <v>175.4425088264937</v>
+        <v>166.9040006717983</v>
       </c>
       <c r="I22" t="n">
-        <v>92.8116232260805</v>
+        <v>73.46099297715702</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156344</v>
+        <v>127.5300068450578</v>
       </c>
       <c r="K22" t="n">
-        <v>431.4224730861981</v>
+        <v>346.2188426883581</v>
       </c>
       <c r="L22" t="n">
-        <v>819.1842911693323</v>
+        <v>681.5916952397813</v>
       </c>
       <c r="M22" t="n">
-        <v>1238.413883213792</v>
+        <v>1045.58446860604</v>
       </c>
       <c r="N22" t="n">
-        <v>1653.109749005499</v>
+        <v>1406.356923807354</v>
       </c>
       <c r="O22" t="n">
-        <v>2020.132206020528</v>
+        <v>1723.57238338524</v>
       </c>
       <c r="P22" t="n">
-        <v>2310.662640856733</v>
+        <v>1971.484327489276</v>
       </c>
       <c r="Q22" t="n">
-        <v>2428.375774410168</v>
+        <v>2059.690627148093</v>
       </c>
       <c r="R22" t="n">
-        <v>2428.375774410168</v>
+        <v>2059.690627148093</v>
       </c>
       <c r="S22" t="n">
-        <v>2245.205584149098</v>
+        <v>2059.690627148093</v>
       </c>
       <c r="T22" t="n">
-        <v>2025.52680186348</v>
+        <v>2059.690627148093</v>
       </c>
       <c r="U22" t="n">
-        <v>2025.52680186348</v>
+        <v>1770.594802600496</v>
       </c>
       <c r="V22" t="n">
-        <v>1770.842313657593</v>
+        <v>1515.910314394609</v>
       </c>
       <c r="W22" t="n">
-        <v>1481.425143620632</v>
+        <v>1226.493144357648</v>
       </c>
       <c r="X22" t="n">
-        <v>1331.890145079893</v>
+        <v>998.503593459631</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.097565936363</v>
+        <v>998.503593459631</v>
       </c>
     </row>
     <row r="23">
@@ -5983,25 +5983,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6445,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,28 +6484,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400676</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121607</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121607</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121607</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6627,46 +6627,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797705</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832659</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487564</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510505</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854702</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648815</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611855</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138374</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703073</v>
+        <v>1245.221808421813</v>
       </c>
     </row>
     <row r="32">
@@ -6691,31 +6691,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6840,10 +6840,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
         <v>261.0127623330919</v>
@@ -6922,25 +6922,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
         <v>484.8112968429803</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7168,28 +7168,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>719.5738700011939</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C43" t="n">
-        <v>550.637687073287</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X43" t="n">
-        <v>1122.014913974964</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y43" t="n">
-        <v>901.2223348314336</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127268</v>
+        <v>15.73946458758482</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>70.12741386431412</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111066</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>265.0304328515138</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>211.0329012241567</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>306.4732379112243</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>178.0446368831023</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>77.1217987144953</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>119.7435986580579</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>17.87885946369357</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>13.23167357738618</v>
+        <v>25.35153685378826</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>200.6994665666748</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9363529330115</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>35.10510839313106</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>141.8227719694285</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>14.75314649076003</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.6367768339986</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>30.59144041089186</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>50.29152613729244</v>
+        <v>250.9723760533456</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>357.9203176067104</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>55.0667680862684</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>143.6185946450596</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>92.50857761769488</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>83.18498022447892</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>276.4905529214255</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.6367768339986</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>285.8172674527551</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.29152613729209</v>
+        <v>102.6944905648479</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.9723760533456</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>130.1636781366578</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>143.6185946450596</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>83.18498022447892</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>187.5415021656201</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.0028168359312</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>77.67000683370551</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>7.821049476759924</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>34.7428785052337</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>62.35543909865318</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>119.8635921600923</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>106.0841272570753</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>203.6630665685114</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>941565.9839804729</v>
+        <v>945370.3857108525</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>945370.3857108525</v>
+        <v>947754.725399707</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>872005.0174998834</v>
+        <v>779442.3519848179</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>915213.622393031</v>
+        <v>815315.9447413116</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>915213.6223930313</v>
+        <v>815315.9447413114</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>920238.8039515031</v>
+        <v>920238.8039515034</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>920238.8039515032</v>
+        <v>920238.8039515034</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>920238.8039515032</v>
+        <v>920238.8039515035</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="E2" t="n">
         <v>426246.3737136507</v>
       </c>
       <c r="F2" t="n">
-        <v>477670.0767775762</v>
+        <v>426246.3737136507</v>
       </c>
       <c r="G2" t="n">
-        <v>501674.8572737692</v>
+        <v>446176.1474672583</v>
       </c>
       <c r="H2" t="n">
-        <v>501674.8572737693</v>
+        <v>446176.1474672583</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062537</v>
@@ -26343,19 +26343,19 @@
         <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="O2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="P2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>1004321.885230093</v>
       </c>
       <c r="C3" t="n">
-        <v>308174.1417414033</v>
+        <v>104983.450530044</v>
       </c>
       <c r="D3" t="n">
-        <v>99404.18284596104</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171903</v>
+        <v>182072.9798171904</v>
       </c>
       <c r="F3" t="n">
-        <v>208781.7516454577</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95052.24834831795</v>
+        <v>78916.35604225245</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744854</v>
+        <v>223720.7540227146</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>141841.1257376603</v>
       </c>
       <c r="K3" t="n">
-        <v>71651.52831447145</v>
+        <v>25342.99488522369</v>
       </c>
       <c r="L3" t="n">
-        <v>24921.83922824965</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341477</v>
+        <v>47552.26579341482</v>
       </c>
       <c r="N3" t="n">
-        <v>54893.66793774206</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>25177.21277645518</v>
+        <v>20903.17611780559</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253911.4645514928</v>
+        <v>171654.5725389695</v>
       </c>
       <c r="C4" t="n">
-        <v>171654.5725389695</v>
+        <v>143951.0939828188</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828189</v>
+        <v>143951.0939828188</v>
       </c>
       <c r="E4" t="n">
         <v>12820.12292715301</v>
       </c>
       <c r="F4" t="n">
-        <v>12936.11401137948</v>
+        <v>12820.12292715301</v>
       </c>
       <c r="G4" t="n">
-        <v>12990.33152560508</v>
+        <v>12865.07075988082</v>
       </c>
       <c r="H4" t="n">
-        <v>12990.33152560508</v>
+        <v>12865.07075988082</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="C5" t="n">
-        <v>85199.08185587224</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>91920.00353567499</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>100142.1285138384</v>
+        <v>81132.69294627216</v>
       </c>
       <c r="H5" t="n">
-        <v>100142.1285138384</v>
+        <v>81132.69294627216</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-483896.1421817752</v>
+        <v>-748024.4334597581</v>
       </c>
       <c r="C6" t="n">
-        <v>-51876.68997106791</v>
+        <v>171278.7892124693</v>
       </c>
       <c r="D6" t="n">
-        <v>176858.0568965524</v>
+        <v>276262.2397425133</v>
       </c>
       <c r="E6" t="n">
-        <v>153570.741109853</v>
+        <v>156699.3114781078</v>
       </c>
       <c r="F6" t="n">
-        <v>162612.9664095599</v>
+        <v>338772.2912952983</v>
       </c>
       <c r="G6" t="n">
-        <v>293031.0989303516</v>
+        <v>272994.1278840612</v>
       </c>
       <c r="H6" t="n">
-        <v>388083.3472786691</v>
+        <v>351910.4839263136</v>
       </c>
       <c r="I6" t="n">
-        <v>379180.9381237106</v>
+        <v>166591.7388873658</v>
       </c>
       <c r="J6" t="n">
-        <v>321000.697162045</v>
+        <v>248471.36717242</v>
       </c>
       <c r="K6" t="n">
-        <v>318348.3232666877</v>
+        <v>364969.4980248567</v>
       </c>
       <c r="L6" t="n">
-        <v>365078.0123529094</v>
+        <v>390312.4929100804</v>
       </c>
       <c r="M6" t="n">
-        <v>342447.5857877443</v>
+        <v>342760.2271166656</v>
       </c>
       <c r="N6" t="n">
-        <v>335106.1836434171</v>
+        <v>390312.4929100805</v>
       </c>
       <c r="O6" t="n">
-        <v>364822.638804704</v>
+        <v>369409.3167922749</v>
       </c>
       <c r="P6" t="n">
-        <v>389999.8515811592</v>
+        <v>390312.4929100804</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="C3" t="n">
-        <v>853.7106645376841</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1272.667109221546</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716385</v>
+        <v>1160.657719432699</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716386</v>
+        <v>1160.657719432699</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261632</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>1055.52402228035</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326006</v>
+        <v>918.2624122144629</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326006</v>
+        <v>918.2624122144626</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="C3" t="n">
-        <v>239.6556507682058</v>
+        <v>80.35422757985532</v>
       </c>
       <c r="D3" t="n">
-        <v>80.35422757985509</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>155.7118084757589</v>
       </c>
       <c r="F3" t="n">
-        <v>182.8904086282478</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>85.37393949483953</v>
+        <v>70.88101883940021</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.93445162528792</v>
+        <v>207.3177809089752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,46 +27011,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="C4" t="n">
-        <v>278.4010767246569</v>
+        <v>98.46987537387588</v>
       </c>
       <c r="D4" t="n">
-        <v>98.46987537387577</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="F4" t="n">
-        <v>224.1225668780578</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>104.6212680456561</v>
+        <v>86.86095681217027</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777364211</v>
+        <v>254.4458758851855</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>542.1149567261634</v>
       </c>
       <c r="K4" t="n">
-        <v>278.4010767246567</v>
+        <v>98.46987537387588</v>
       </c>
       <c r="L4" t="n">
-        <v>98.46987537387599</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="N4" t="n">
-        <v>224.1225668780578</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>104.6212680456561</v>
+        <v>86.86095681217027</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="K4" t="n">
-        <v>278.4010767246569</v>
+        <v>98.46987537387588</v>
       </c>
       <c r="L4" t="n">
-        <v>98.46987537387577</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="N4" t="n">
-        <v>224.1225668780578</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>104.6212680456561</v>
+        <v>86.86095681217027</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>250.9947133678745</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>397.0367556710772</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27469,10 +27469,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27508,22 +27508,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>120.7708942509904</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>193.9203333571521</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>63.10621527638293</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U4" t="n">
-        <v>232.3429560985387</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>133.2567704837482</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>25.66908944721905</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>47.3580343309374</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.17372043046393</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27751,7 +27751,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>118.3269101681028</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>140.5639998250494</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>5.228523965558338</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>115.0205513008606</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>43.29763324125874</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,22 +28064,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>195.5290386500999</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29699,7 +29699,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T2" t="n">
-        <v>10.8061339609081</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75612396528671</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.432002671508275</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>35.14799735958413</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>132.3122829933229</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>291.2869367409257</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>436.5636098258711</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840426</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934779</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>612.3808166839008</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>578.2538401190903</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662298</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928395</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141319</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699491</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>15.02359169452748</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.274560213720662</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.836283316175396</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>17.73463097464133</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>63.22291242095115</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>173.4885040076062</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>296.5194861913577</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616798</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730378</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152843</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884505</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475632</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>234.3999545349506</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>114.0106430867496</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053859</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>7.401510384057843</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.539478247526971</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>13.68736114619435</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017475</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>108.8411121001569</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>178.8593818490426</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368736</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282506</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>235.5821576420139</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>217.5982526595396</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>186.1928964099892</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.9103103451903</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153089</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>26.82890727735639</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978875</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,34 +31515,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31551,13 +31551,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.116249685312743</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>52.39679208970914</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>197.2442159930197</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>434.2352967288128</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>650.8061459081014</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>807.3825722149915</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>898.3686775561719</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>912.9052219745668</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>862.0305141662382</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>735.7231000600797</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.4974082048169</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>321.3836192950269</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>116.5865397040643</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>22.39638299745654</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4092999748250194</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.737434914174646</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>26.43785825005514</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>94.24940384329373</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>148.9072571993069</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>594.3715588869117</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>693.6035745257424</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>711.9611972615892</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>651.3054025843509</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>522.7300056725252</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>50.84665290144569</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>11.03378371108113</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.180094402248332</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.29497347564541</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>20.40440053801102</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>69.01611143122746</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>162.2546247281305</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>266.6341910795304</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>341.1999656427731</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>359.7475240050346</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>351.1935319594475</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>324.3840690848623</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>277.5666101816957</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>192.1727334924534</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>103.1903528231109</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>39.99512866192955</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>9.805795759575842</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1251803713988407</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377424</v>
+        <v>4.665960681136473</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122281</v>
+        <v>47.78526982568891</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>179.884449159514</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874064</v>
+        <v>396.0175803606071</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830429</v>
+        <v>593.5276959931141</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364261</v>
+        <v>736.3235901884445</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293306</v>
+        <v>819.3018684516053</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229606</v>
+        <v>832.5590292368844</v>
       </c>
       <c r="O17" t="n">
-        <v>919.857844208695</v>
+        <v>786.1618827138335</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687522</v>
+        <v>670.9709783982768</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148605</v>
+        <v>503.8712615050766</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987162</v>
+        <v>293.0981526364392</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854257</v>
+        <v>106.3255790213975</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665719</v>
+        <v>20.42524288167492</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.3732768544909177</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540904</v>
+        <v>2.496509056892974</v>
       </c>
       <c r="H18" t="n">
-        <v>28.2113810308819</v>
+        <v>24.11102168104531</v>
       </c>
       <c r="I18" t="n">
-        <v>100.5719078530531</v>
+        <v>85.95436884478005</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735817</v>
+        <v>235.8653578707525</v>
       </c>
       <c r="K18" t="n">
-        <v>471.6886536848223</v>
+        <v>403.1314646825817</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745723</v>
+        <v>542.0600037784504</v>
       </c>
       <c r="M18" t="n">
-        <v>740.13237155043</v>
+        <v>632.5584570908206</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927636</v>
+        <v>649.300397213581</v>
       </c>
       <c r="O18" t="n">
-        <v>421.3049304638558</v>
+        <v>593.9830123213735</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>409.4742304369678</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862159</v>
+        <v>46.3715607716743</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821092</v>
+        <v>10.06268343545896</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1642440169008536</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291842</v>
+        <v>2.092989330124538</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548567</v>
+        <v>18.60857786238</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284924</v>
+        <v>62.9418973095634</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273332</v>
+        <v>147.9743456398048</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900885</v>
+        <v>243.1673058090145</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640618</v>
+        <v>311.1704318623337</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265021</v>
+        <v>328.0855910848855</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416873</v>
+        <v>320.2844490362398</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465962</v>
+        <v>295.8345282252394</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282423</v>
+        <v>253.1375458906986</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561742</v>
+        <v>175.2593156343375</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860859</v>
+        <v>94.10841115269056</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851327</v>
+        <v>36.47509587135217</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551969</v>
+        <v>8.942772592350297</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1141630543704295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377426</v>
+        <v>4.665960681136473</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122283</v>
+        <v>47.78526982568891</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>179.884449159514</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874065</v>
+        <v>396.0175803606071</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830431</v>
+        <v>593.5276959931141</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364265</v>
+        <v>736.3235901884445</v>
       </c>
       <c r="M20" t="n">
-        <v>958.633669529331</v>
+        <v>819.3018684516053</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229609</v>
+        <v>832.5590292368844</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086953</v>
+        <v>786.1618827138335</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687525</v>
+        <v>670.9709783982768</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148607</v>
+        <v>503.8712615050766</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987163</v>
+        <v>293.0981526364392</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854257</v>
+        <v>106.3255790213975</v>
       </c>
       <c r="T20" t="n">
-        <v>23.8987927266572</v>
+        <v>20.42524288167492</v>
       </c>
       <c r="U20" t="n">
-        <v>0.436756920190194</v>
+        <v>0.3732768544909177</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540905</v>
+        <v>2.496509056892974</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088191</v>
+        <v>24.11102168104531</v>
       </c>
       <c r="I21" t="n">
-        <v>100.5719078530531</v>
+        <v>85.95436884478005</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735818</v>
+        <v>235.8653578707525</v>
       </c>
       <c r="K21" t="n">
-        <v>471.6886536848224</v>
+        <v>403.1314646825817</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745725</v>
+        <v>542.0600037784504</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504302</v>
+        <v>632.5584570908206</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927639</v>
+        <v>649.300397213581</v>
       </c>
       <c r="O21" t="n">
-        <v>421.3049304638554</v>
+        <v>593.9830123213735</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>409.4742304369678</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862161</v>
+        <v>46.3715607716743</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821093</v>
+        <v>10.06268343545896</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1642440169008536</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291843</v>
+        <v>2.092989330124538</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548567</v>
+        <v>18.60857786238</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284927</v>
+        <v>62.9418973095634</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273333</v>
+        <v>147.9743456398048</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900886</v>
+        <v>243.1673058090145</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640619</v>
+        <v>311.1704318623337</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265022</v>
+        <v>328.0855910848855</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416875</v>
+        <v>320.2844490362398</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465963</v>
+        <v>295.8345282252394</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282424</v>
+        <v>253.1375458906986</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561742</v>
+        <v>175.2593156343375</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860859</v>
+        <v>94.10841115269056</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851329</v>
+        <v>36.47509587135217</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551969</v>
+        <v>8.942772592350297</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1141630543704295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>172.7419126813483</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>423.1432842295773</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877691</v>
+        <v>110.1576450365139</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142395</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808906</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140554</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>372.2834058662052</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>382.9677530873099</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>348.1556286974036</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109602</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.31198861839</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>172.7419126813483</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>228.8054610813128</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L6" t="n">
-        <v>260.1526621818056</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510195</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>346.2449737319509</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>294.302268944006</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>216.6751672332329</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>304.4954681847781</v>
+        <v>255.4201198419612</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.48193198348409</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>156.5898900231598</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>256.4684548971897</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>280.9040898900911</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>279.7143300212425</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>242.1833805735793</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>183.4714556748827</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.74826709349593</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>562.7107934893641</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>546.4575832202797</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>253.1893922021266</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>430.7162948631208</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>571.6161572450042</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>668.0224443288992</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>683.4921583779758</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>631.9323027445514</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>504.4901043048101</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>330.1917183303674</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>105.7980814808948</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>11.06581822494786</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>455.8171791070375</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>551.469540603724</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>580.6194851782559</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>508.7091581399064</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>388.7555982581949</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>68.89544461145772</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>244.3646992536475</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>368.7899909030892</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>399.3314009668752</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>395.325704338676</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>348.969196998902</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>274.8451694465892</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>106.010690240759</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607201</v>
+        <v>214.9716758339208</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380623</v>
+        <v>373.4378449481335</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664388</v>
+        <v>500.5571752184573</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020579</v>
+        <v>588.9556352243326</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263696</v>
+        <v>603.1459656402935</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870083</v>
+        <v>556.0636712921468</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134826</v>
+        <v>439.7379826430072</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.254733440411</v>
+        <v>281.5655716306271</v>
       </c>
       <c r="R17" t="n">
-        <v>127.357360784584</v>
+        <v>77.51261482230711</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.049527853053078</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.139375506915</v>
+        <v>109.0277312040858</v>
       </c>
       <c r="K18" t="n">
-        <v>333.8472147104633</v>
+        <v>265.2900257082227</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946981</v>
+        <v>403.5056239985763</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284117</v>
+        <v>490.4244231688023</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094304</v>
+        <v>517.9586851302478</v>
       </c>
       <c r="O18" t="n">
-        <v>278.7086860194114</v>
+        <v>451.3867678769291</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>275.4998230226376</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066046</v>
+        <v>54.61516552313205</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642056</v>
+        <v>220.8978139831316</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243779</v>
+        <v>338.7604571226498</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883427</v>
+        <v>367.6694680467261</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209159</v>
+        <v>364.4166214154684</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606359</v>
+        <v>320.419656139279</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931358</v>
+        <v>250.4161051555921</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044798</v>
+        <v>89.09727238264308</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607202</v>
+        <v>214.9716758339208</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380626</v>
+        <v>373.4378449481335</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664393</v>
+        <v>500.5571752184573</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020583</v>
+        <v>588.9556352243326</v>
       </c>
       <c r="N20" t="n">
-        <v>744.73230092637</v>
+        <v>603.1459656402935</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870085</v>
+        <v>556.0636712921468</v>
       </c>
       <c r="P20" t="n">
-        <v>553.844392613483</v>
+        <v>439.7379826430072</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404112</v>
+        <v>281.5655716306271</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845842</v>
+        <v>77.51261482230711</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069151</v>
+        <v>109.0277312040858</v>
       </c>
       <c r="K21" t="n">
-        <v>333.8472147104634</v>
+        <v>265.2900257082227</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946983</v>
+        <v>403.5056239985763</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284119</v>
+        <v>490.4244231688023</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094306</v>
+        <v>517.9586851302478</v>
       </c>
       <c r="O21" t="n">
-        <v>278.7086860194109</v>
+        <v>451.3867678769291</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>275.4998230226376</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066052</v>
+        <v>54.61516552313205</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642057</v>
+        <v>220.8978139831316</v>
       </c>
       <c r="L22" t="n">
-        <v>391.678604124378</v>
+        <v>338.7604571226498</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883428</v>
+        <v>367.6694680467261</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209161</v>
+        <v>364.4166214154684</v>
       </c>
       <c r="O22" t="n">
-        <v>370.729754560636</v>
+        <v>320.419656139279</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931359</v>
+        <v>250.4161051555921</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044799</v>
+        <v>89.09727238264308</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36995,7 +36995,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191275</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
         <v>426.2724270010451</v>
